--- a/SESMainSubSP.xlsx
+++ b/SESMainSubSP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -49,82 +49,103 @@
     <x:t>IsModified/Added</x:t>
   </x:si>
   <x:si>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New Supply Point Relationship</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Supply Point Relationship tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Supply Point Relationship Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Main Supply </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Main Supply field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Main Supply field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Sub Supply </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Sub Supply field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Sub Supply field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field Start Date </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Start Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Start Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field End Date </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  End Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the End Date field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Supply Point Relationship with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Supply Point Relationship is created</x:t>
+  </x:si>
+  <x:si>
     <x:t>TestScenario_2</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>New Supply Point Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Supply Point Relationship tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Supply Point Relationship Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Main Supply </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Main Supply field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Main Supply field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Start Date </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Start Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Start Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field Sub Supply </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Sub Supply field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Sub Supply field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field End Date </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  End Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the End Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Supply Point Relationship with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Supply Point Relationship is created</x:t>
+    <x:t>View Supply Point Relationship</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Supply Point Relationship tab,  and select a Supply Point Relationship </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Supply Point Relationship Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Supply Point Relationship name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Supply Point Relationship Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_3</x:t>
@@ -133,19 +154,16 @@
     <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Supply Point Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Supply Point Relationship tab,  and select a Supply Point Relationship </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Supply Point Relationship Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Supply Point Relationship name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Supply Point Relationship Details</x:t>
+    <x:t>Edit Supply Point Relationship</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Supply Point Relationship tab,  and click on existing Supply Point Relationship to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Supply Point Relationship Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Supply Point Relationship is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4</x:t>
@@ -154,16 +172,22 @@
     <x:t>TestScenario_4.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Edit Supply Point Relationship</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Supply Point Relationship tab,  and click on existing Supply Point Relationship to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Supply Point Relationship Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Supply Point Relationship is edited</x:t>
+    <x:t>Delete Supply Point Relationship</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Supply Point Relationship tab,  and select the existing  Supply Point Relationship to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Supply Point Relationship</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Supply Point Relationship</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Supply Point Relationship</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Supply Point Relationship is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -247,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K15" totalsRowShown="0">
-  <x:autoFilter ref="A1:K15"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K18" totalsRowShown="0">
+  <x:autoFilter ref="A1:K18"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -554,7 +578,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K15"/>
+  <x:dimension ref="A1:K18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -562,12 +586,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="30.130625000000002" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="31.980625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="39.980625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="90.550625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="72.270625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="92.700624999999988" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="108.98062499999999" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -913,6 +937,71 @@
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
       <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
